--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1214.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1214.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.810301714902278</v>
+        <v>1.178289294242859</v>
       </c>
       <c r="B1">
-        <v>2.694438022990974</v>
+        <v>2.211082458496094</v>
       </c>
       <c r="C1">
-        <v>3.798536419694664</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.299936046093166</v>
+        <v>2.357163190841675</v>
       </c>
       <c r="E1">
-        <v>1.352137506490098</v>
+        <v>1.224979162216187</v>
       </c>
     </row>
   </sheetData>
